--- a/costs-budget-and-actuals.xlsx
+++ b/costs-budget-and-actuals.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qdd/Google Drive/git/notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D945263F-33C5-4346-86EE-FBDCD9058AEC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{042ECCC8-FE50-7C4F-B607-C29103824F64}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11020" yWindow="880" windowWidth="24960" windowHeight="20720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12280" yWindow="500" windowWidth="24960" windowHeight="20720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="bom" sheetId="1" r:id="rId1"/>
@@ -137,9 +137,6 @@
     <t>Written exam fee</t>
   </si>
   <si>
-    <t>Est. (2015)</t>
-  </si>
-  <si>
     <t>Total:</t>
   </si>
   <si>
@@ -147,6 +144,9 @@
   </si>
   <si>
     <t>Boson Ex-SIM Max</t>
+  </si>
+  <si>
+    <t>Budget Estimates (2015)</t>
   </si>
 </sst>
 </file>
@@ -307,7 +307,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -345,6 +345,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -723,7 +726,7 @@
   <dimension ref="A1:D42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -736,8 +739,8 @@
   <sheetData>
     <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="5"/>
-      <c r="B1" s="12" t="s">
-        <v>35</v>
+      <c r="B1" s="17" t="s">
+        <v>38</v>
       </c>
       <c r="C1" s="12" t="s">
         <v>19</v>
@@ -1018,7 +1021,7 @@
     </row>
     <row r="28" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B28" s="8"/>
       <c r="C28" s="8">
@@ -1135,7 +1138,7 @@
     </row>
     <row r="39" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B39" s="8">
         <v>1250</v>
@@ -1160,7 +1163,7 @@
     </row>
     <row r="42" spans="1:4" ht="26" x14ac:dyDescent="0.3">
       <c r="A42" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B42" s="15">
         <f>SUM(B8,B24,B30,B40)</f>
